--- a/image/chargeitemdefinition.xlsx
+++ b/image/chargeitemdefinition.xlsx
@@ -1079,45 +1079,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="65.8515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="66.7421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="99.69921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="100.1328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="60.71484375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.87890625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="56.4765625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="60.53125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.7578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="57.44921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="53.8359375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="43.69921875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="53.828125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="43.07421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/chargeitemdefinition.xlsx
+++ b/image/chargeitemdefinition.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="295">
   <si>
     <t>Path</t>
   </si>
@@ -165,7 +165,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -381,10 +381,6 @@
   </si>
   <si>
     <t>ChargeItemDefinition.version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Business version of the charge item definition</t>
@@ -1079,45 +1075,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="66.7421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="65.8515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="100.1328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="99.69921875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="60.53125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.7578125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="57.44921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="60.71484375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.87890625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="56.4765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="53.828125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="43.07421875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="53.8359375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="43.69921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2487,16 +2483,16 @@
         <v>49</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2564,10 +2560,10 @@
         <v>46</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>40</v>
@@ -2575,7 +2571,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2598,16 +2594,16 @@
         <v>49</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2657,7 +2653,7 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -2675,7 +2671,7 @@
         <v>46</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>40</v>
@@ -2686,7 +2682,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2712,10 +2708,10 @@
         <v>61</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2766,7 +2762,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -2795,11 +2791,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2818,13 +2814,13 @@
         <v>49</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2875,7 +2871,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -2904,11 +2900,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -2927,13 +2923,13 @@
         <v>49</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2984,7 +2980,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3013,7 +3009,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3039,13 +3035,13 @@
         <v>67</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3071,14 +3067,14 @@
         <v>40</v>
       </c>
       <c r="W18" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="X18" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="X18" t="s" s="2">
+      <c r="Y18" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="Y18" t="s" s="2">
-        <v>147</v>
-      </c>
       <c r="Z18" t="s" s="2">
         <v>40</v>
       </c>
@@ -3095,7 +3091,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>48</v>
@@ -3113,10 +3109,10 @@
         <v>46</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>40</v>
@@ -3124,7 +3120,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3147,19 +3143,19 @@
         <v>49</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>40</v>
@@ -3208,7 +3204,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3226,10 +3222,10 @@
         <v>46</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>40</v>
@@ -3237,11 +3233,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3260,16 +3256,16 @@
         <v>49</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3319,7 +3315,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3337,10 +3333,10 @@
         <v>46</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>40</v>
@@ -3348,7 +3344,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3371,19 +3367,19 @@
         <v>49</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>40</v>
@@ -3432,7 +3428,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3450,10 +3446,10 @@
         <v>46</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>40</v>
@@ -3461,7 +3457,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3484,16 +3480,16 @@
         <v>49</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3543,7 +3539,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3561,7 +3557,7 @@
         <v>46</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -3572,7 +3568,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3595,16 +3591,16 @@
         <v>49</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3654,7 +3650,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3672,7 +3668,7 @@
         <v>46</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
@@ -3683,7 +3679,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3706,19 +3702,19 @@
         <v>49</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -3767,7 +3763,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3785,7 +3781,7 @@
         <v>46</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
@@ -3796,7 +3792,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3819,16 +3815,16 @@
         <v>49</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -3854,14 +3850,14 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="X25" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="X25" t="s" s="2">
+      <c r="Y25" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="Y25" t="s" s="2">
-        <v>198</v>
-      </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
       </c>
@@ -3878,7 +3874,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3896,7 +3892,7 @@
         <v>46</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
@@ -3907,11 +3903,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -3930,17 +3926,17 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>40</v>
@@ -3989,7 +3985,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4007,7 +4003,7 @@
         <v>46</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>40</v>
@@ -4018,7 +4014,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4041,16 +4037,16 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4100,7 +4096,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4118,7 +4114,7 @@
         <v>46</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>40</v>
@@ -4129,7 +4125,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4152,19 +4148,19 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>40</v>
@@ -4213,7 +4209,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4231,7 +4227,7 @@
         <v>46</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
@@ -4242,7 +4238,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4265,19 +4261,19 @@
         <v>49</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>40</v>
@@ -4326,7 +4322,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4344,7 +4340,7 @@
         <v>46</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>40</v>
@@ -4355,7 +4351,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4378,13 +4374,13 @@
         <v>49</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4411,14 +4407,14 @@
         <v>40</v>
       </c>
       <c r="W30" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="X30" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="X30" t="s" s="2">
+      <c r="Y30" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="Y30" t="s" s="2">
-        <v>230</v>
-      </c>
       <c r="Z30" t="s" s="2">
         <v>40</v>
       </c>
@@ -4435,7 +4431,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4464,7 +4460,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4487,16 +4483,16 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4546,7 +4542,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4575,7 +4571,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4598,16 +4594,16 @@
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4657,7 +4653,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4669,7 +4665,7 @@
         <v>40</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>46</v>
@@ -4686,7 +4682,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4709,13 +4705,13 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4766,7 +4762,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4781,7 +4777,7 @@
         <v>40</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>40</v>
@@ -4795,7 +4791,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4824,7 +4820,7 @@
         <v>93</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>95</v>
@@ -4877,7 +4873,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -4892,7 +4888,7 @@
         <v>40</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>40</v>
@@ -4906,11 +4902,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -4932,10 +4928,10 @@
         <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>95</v>
@@ -4990,7 +4986,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5019,7 +5015,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5042,13 +5038,13 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5099,7 +5095,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5128,7 +5124,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5151,13 +5147,13 @@
         <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5208,7 +5204,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5237,7 +5233,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5260,16 +5256,16 @@
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5319,7 +5315,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5348,7 +5344,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5371,13 +5367,13 @@
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5428,7 +5424,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5440,7 +5436,7 @@
         <v>40</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>46</v>
@@ -5457,7 +5453,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5480,13 +5476,13 @@
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5537,7 +5533,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5552,7 +5548,7 @@
         <v>40</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>40</v>
@@ -5566,7 +5562,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5595,7 +5591,7 @@
         <v>93</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>95</v>
@@ -5648,7 +5644,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5663,7 +5659,7 @@
         <v>40</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>40</v>
@@ -5677,11 +5673,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5703,10 +5699,10 @@
         <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>95</v>
@@ -5761,7 +5757,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -5790,7 +5786,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5816,13 +5812,13 @@
         <v>40</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>273</v>
-      </c>
       <c r="M43" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -5872,7 +5868,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -5901,7 +5897,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5924,13 +5920,13 @@
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5981,7 +5977,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -5993,7 +5989,7 @@
         <v>40</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>46</v>
@@ -6010,7 +6006,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6033,13 +6029,13 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6090,7 +6086,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6105,7 +6101,7 @@
         <v>40</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>40</v>
@@ -6119,7 +6115,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6148,7 +6144,7 @@
         <v>93</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>95</v>
@@ -6201,7 +6197,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6216,7 +6212,7 @@
         <v>40</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>40</v>
@@ -6230,11 +6226,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6256,10 +6252,10 @@
         <v>92</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>95</v>
@@ -6314,7 +6310,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6343,7 +6339,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6369,10 +6365,10 @@
         <v>67</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6399,14 +6395,14 @@
         <v>40</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="Y48" t="s" s="2">
-        <v>284</v>
-      </c>
       <c r="Z48" t="s" s="2">
         <v>40</v>
       </c>
@@ -6423,7 +6419,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>48</v>
@@ -6452,7 +6448,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6475,13 +6471,13 @@
         <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6532,7 +6528,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6561,7 +6557,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6584,13 +6580,13 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6641,7 +6637,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -6670,7 +6666,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6693,13 +6689,13 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6750,7 +6746,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
